--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2799.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2799.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.169373116397617</v>
+        <v>0.9496732950210571</v>
       </c>
       <c r="B1">
-        <v>2.440890895429761</v>
+        <v>1.710909962654114</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>4.634339332580566</v>
       </c>
       <c r="D1">
-        <v>2.363911163666398</v>
+        <v>1.532417058944702</v>
       </c>
       <c r="E1">
-        <v>1.231706663584305</v>
+        <v>1.097716093063354</v>
       </c>
     </row>
   </sheetData>
